--- a/500all/speech_level/speeches_CHRG-114hhrg98691.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg98691.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="122">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>412564</t>
   </si>
   <si>
-    <t>Brad R. Wenstrup</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Wenstrup. Good afternoon, and welcome to the Veterans' Affairs Subcommittee on Economic Opportunity's hearing today entitled, ``A Review of Licensing and Credentialing Standards for Servicemembers and Veterans: Do Barriers Still Remain?''    For several years, many have tried to do what on face value should be a fairly easy task, ensuring that the training and knowledge that servicemembers gain from their time in the military seamlessly translates to civilian licenses and credentials when they return home.    The translation of skills is critical. As we know, so many positions in our economy could remain unfilled due to the ever-growing skills gap of our workforce. We simply should not continue to spend millions of dollars training servicemembers to do a job in the military and then require them to turn around and retake unnecessary courses or exams for the same job in the civilian workforce.    After many years of great work done by many of our witnesses here today as well as others, I think we can safely say that their hard work is finally paying off. Last week, the Bureau of Labor Statistics announced that the unemployment rate for veterans in August was 4.2 percent, the lowest it was been in many years.    So news like this is very encouraging, but I still remain concerned about the number of younger veterans who remain either unemployed, underemployed at their current job, or have left the workforce altogether. These are the types of veterans that can benefit from redoubling our efforts to improving licensing and credentialing standards and programs for our veterans.    Before I recognize the ranking member, I want to recognize the efforts of members of our first panel. Veterans groups like the American Legion and nonprofits like the Lumina Foundation are the ones who are on the front line making huge strides in addressing this issue. It is groups like these, not the Federal Government, that are turning the tide.    I also want to thank the National Governors Association for their work and attendance here today. Congress can create all of the new Federal programs we want, but if the States don't participate and step up and change their laws and regulations to recognize the skills and knowledge that our servicemembers gain through military service, then the programs are doomed to fail.    So, with that, I look forward to hearing from our witnesses today about how Congress can help facilitate improvements in this area, and I now recognize the ranking member, Mr. Takano, for his opening comments.</t>
   </si>
   <si>
     <t>412520</t>
   </si>
   <si>
-    <t>Mark Takano</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Takano. Thank you, Mr. Chairman. And I am very happy to join in today's examination of the challenges veterans face as they translate skills and training they have received in the military to their best advantage in the civilian workforce.    I appreciate the witnesses appearing here today from the various sectors most involved in this process. The chairman and I are both committed to eliminating unnecessary barriers to veterans' employment, and I look forward to learning how we can improve current policies to ensure that veterans' military experience and training effectively translates into meaningful civilian employment.    In examining this issue, it is crucial that civilian industries recognize and need the certifications that our veterans are pursuing. I am concerned about the lack of legitimate third-party accreditation of most licenses and credentials, and I worry that, without clear standards, veterans may be pursuing certifications that don't lead to jobs.    In particular, I am extremely troubled by the fact that many veterans are chipping away at their valuable post-9/11 GI Bill entitlement, a month at a time, in order to pay for licensing or credentialing tests, especially if those certifications don't lead to meaningful careers.    I look forward to your testimony about how we can improve our current policy of charging veterans 1 month of post-9/11 GI Bill entitlement per licensing or credentialing test. Surely, there is a better way to pay for these tests than to remove 1 full month per test from the veteran's 36-month entitlement. I am looking into a legislative solution, and I hope Chairman Wenstrup will also be interested in considering ways to fix this particular problem.    We have got a lot to get through here today, and so I just want to say welcome. Welcome back, everybody. And thank you again for being here and answering our questions. And I look forward to the testimony from all of you here today.    I yield back.</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Gonzalez</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gonzalez. Thank you, Mr. Chairman.    Good afternoon, Chairman Wenstrup, Ranking Member Takano, and distinguished members of the subcommittee. On behalf of National Commander Dale Barnett and over 2 million members of the American Legion, we thank you and your colleagues for the work you do in support of our servicemembers, veterans, and their families. The American Legion commends you for holding this hearing.    In early 1996, the American Legion launched the first groundbreaking credentialing study to report on those skills for which the armed services provided training and for which a license or certification is required in the civilian workforce.    The education, training, and experience obtained during an individual's military service not only provides tangible benefits for the Nation's defense but can also contribute significantly to a highly skilled civilian workforce. The military invests millions of dollars training its uniform personnel, providing a broad base of knowledge and experiences that can carry over to civilian occupations.    However, transitioning from military occupations to civilian jobs can present significant challenges for servicemembers. Postsecondary education credentials are arguably even more important today than ever before. Those individuals who hold the credential generally have lower unemployment rates and greater earning power. Since 2008, jobs in the workforce that require some postsecondary education or a degree have increased by 3.6 million, while jobs for people with a high school diploma or less have declined, leading to higher unemployment rates.    However, when civilian credentialing boards, States, and employers fail to fully recognize military education, training, and experience, both the servicemember and the Nation are impaired. The veteran faces reduced chances of obtaining a job on par with his or her skills, and the civilian workforce cannot take full advantage of the extensive skills training in which our Nation has invested.    Still, the process for a veteran to get licensed is not as easy as showing up to an office with a DD 214 providing relevant military training. Conflicts between Federal and State requirements for credentials complicate the issue, which remains far from resolved around the country.    Earlier this year, the American Legion hosted its second national credentialing summit in Washington, DC, to identify best practices for implementing State laws and for lobbying new ones. Policymakers and other key stakeholders were part of the collaborative discussion. The American Legion is in the process of issuing a post-summit report in the next several months.    In the past several years, a variety of Federal and State legislation, administrative initiatives, and new Department of Defense and Department of Labor programs have been developed to reduce barriers to credentialing for servicemembers and veterans. We applaud these efforts but remain concerned about how to ensure the quality of the credentials that are paid for by the Department of Veterans Affairs.    Currently, the VA does not require periodic reapproval of certification programs. Certification tests and organizations at present are only approved once, and there are no requirements for reapproval. However, certification requirements are adapted, and changes to exams are made by the certifying agency on a regular basis. The American Legion recommends a reapproval process to ensure that the tests and organizations continue to meet the statutory requirement for payment.    Another barrier is the difference between post-9/11 and the government GI Bill payment system. The American Legion encourages this committee to eliminate the requirement that post-9/11 GI Bill recipients use an entire month's worth of entitlement for a licensing or certification test fee even when the fee amounts to far less than the full month's entitlement.    Under Title 38, U.S.C. Section 3315, license and certification tests, post-9/11 GI Bill recipients are charged 1 full month of entitlement, which may amount to over $1,000, even if the licensing or certification fee is significantly less than that. One of our recommendations is to reduce proportional to the cost of the licensing and exam fees.    While I have only highlighted two barriers and solutions within my oral remarks, my written testimony further explains barriers and Legion recommendations to Congress.    This concludes my testimony. The American Legion appreciates the opportunity to address this topic as well as identify ways to continue to break down barriers that would not only benefit those who have served but benefit our economy and workforce. I will be happy to answer any questions you might have.    And thank you, Chairman.    [The prepared statement of Steve Gonzalez appears in the Appendix]</t>
   </si>
   <si>
@@ -85,18 +76,12 @@
     <t xml:space="preserve">    Dr. Swift, you are now recognized for 5 minutes.    Mr. Swift. Thank you, Mr. Chairman.    My name is Roy Swift, and I am the Executive Director of Workcred, an affiliate of the American National Standards Institute. ANSI is the coordinator of the U.S. standardization system, and Workcred is a separate affiliate whose mission is to strengthen workforce quality by improving workforce credentials and the credentialing system.    Before launching Workcred, I spent the previous 10 years building ANSI's internationally recognized accreditation programs for educational certificates and certifications.    It is important to note that Workcred is separate from and respects the impartiality of ANSI's accreditation services. Nonetheless, both organizations share an ongoing commitment to fostering a more robust and qualified American workforce and enhancing the quality of credentials.    As a retired United States Army colonel who served a 28-year career in the U.S. Army Medical Department, I am deeply honored to testify today on the credentialing of servicemembers and veterans.    U.S. military personnel gain valuable training, skills, and, at times, do earn civilian credentials during their service, particularly in the medical arena. Credentials can contribute to career development and enhance the potential for promotion for servicemembers. After military service, credentials can help demonstrate to civilian employers that training and skills attained in the military are on par with those gained through traditional civilian pathways.    Unfortunately, many servicemembers that have earned a military occupational specialty are often not licensed or certified to perform a comparable job in the civilian workforce. This situation creates an artificial barrier to employment.    With an estimated 250,000 military personnel expected to leave the service every year, the need to translate military skills into civilian careers is as important as ever. But we face a tremendous challenge. There are more than 4,000 certifications in the U.S., and less than 10 percent of these are accredited or reviewed by a third-party accreditation body. This lack of third-party review creates a buyer-beware environment because most certifications would not meet a national or international standard.    Accreditation is an independent third-party assessment of a certification body's competence, and it plays an important role in increasing the credibility and continuous quality improvement of certifications.    ANSI's accreditation process is designed to increase the integrity and mobility of certified professionals and provide confidence to the market that they have the required competencies as advertised. Millions of professionals currently hold certifications from ANSI-accredited certification bodies.    In ANSI's view, the global nature of personnel certification demands accreditation to international standards. That is why ANSI's accreditation program is based on a national standard and international standard, ISO 17024. And that is why ANSI was the first U.S. accreditation body to deliver this accreditation in accordance with the requirements of 17011.    17011 is the basis for mutual recognition of accreditation bodies in countries around the world. This assures that credentials are seen as equivalent and are transportable across borders, broadening the global labor market and opportunities for employers and employees.    With respect to veterans' employability, ANSI has long been an active leader in working with the government on private credentialing solutions. For example, the military Credentialing Opportunities Online, COOL, program and the Department of Labor highlight ANSI accreditation.    With a broader vision, Workcred is focused on building a competency-driven credentialing economic system. We want to create alignment between industry, training, and credentialing organizations. This will advance the quality workforce credentials that have validity and are market-valued and will promote an open, transparent exchange of information.    ANSI and Workcred, in collaboration with the American Legion, were instrumental in working with the Army's TRADOC to identify high-quality, industry-recognized credentials relevant to Army soldiers as candidates for Army credentialing pilot programs.    Together with partners from George Washington University and Southern Illinois University, Workcred has just launched the Credentialing Transparency Initiative Pilot Program to create clarity in the U.S. credentialing marketplace. Funded by Lumina, the initiative will create a voluntary registry that we think has great potential for use by the Department of Defense.    All Americans have a stake in a strong and effective credentialing system. Both ANSI and Workcred are committed to supporting the employability and successful transition of military servicemembers into the workforce.    Thank you, sir.    [The prepared statement of Roy Swift appears in the Appendix]    Dr. Wenstrup. Thank you very much, Dr. Swift.    And, Mr. Merisotis, you are now recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Merisotis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Merisotis. Thank you very much for the chance to be here today. I am Jamie Merisotis, president of Lumina Foundation.    You know, the issues being discussed here today are vital not just to the millions of individuals who are directly affected but to the growing demand for talent that will impact our entire Nation and its future. At Lumina Foundation, which is the Nation's largest private foundation focused specifically on increasing student access to and success in postsecondary education, we are working to improve the Nation's talent profile by focusing all of our efforts on one specific goal, what we call ``Goal 2025.''    That goal is this: By the year 2025, we want 60 percent of Americans to hold a high-quality postsecondary degree, certificate, or other postsecondary credential. We are convinced that this level of educational attainment is a national necessity that is the only way to ensure our country can thrive in the global economy.    Unfortunately, today, only about 45 percent of Americans now hold any kind of postsecondary credential at all. So, clearly, we are a long way from having the workforce that we need for the 21st century.    Certainly, servicemembers and military veterans can help close this gap. In fact, they represent a huge asset, a rich source of talent that this Nation sorely needs. Unfortunately, as you have already heard, their vast potential is not being fully realized, in part because of barriers imposed by issues related to education credentialing.    Lumina is involved in many different areas of work related to credentialing. When we embraced this idea of Goal 2025, we realized very quickly that things must change significantly when it comes to credentialing if we have any hope of reaching that 60-percent rate. Simply put, our Nation's postsecondary system needs to be revamped so that it can serve students better and serve far more of them than it ever has before, including the millions of our military veterans.    In short, we need a student-centered system, one that recognizes and rewards not just time spent in the classroom but actual learning, no matter where or how that learning was obtained. This is critical for servicemembers and veterans. If there is one barrier to postsecondary success facing our returning veterans, that is it: being recognized for what they learned while in service. Any workable redesign of higher education must address this barrier, which results from the complexity and confusion of our current approach to credentialing.    Today's credentialing marketplace is highly fragmented, with a vast array of credentials that don't always connect--to each other, to other educational opportunities, or to careers. We need a credentialing system that does connect, one that actually functions as a system, not as a collection of disparate parts.    A great deal of our recent work has been focused on reimagining this type of interconnected system. In fact, as Dr. Swift mentioned, we are part of a partnership of more than 80 national organizations--business, education, workforce, labor, and other organizations--that have begun a national dialogue on this topic.    A reimagined credentialing system would be competency-based, interconnected, and continually updated. It would ensure quality, and it would enable users--students, education providers, and employers--to compare the value of various credentials. Clearly, a system with these attributes would be of enormous benefit to veterans as they make their transition to civilian life.    Of course, the effort to create this type of interconnected system is one that will require concerted action by a range of stakeholders, including the Federal Government, which has supported credentialing reform through its leadership, through funding, and through participation and research.    The Departments of Labor and Education, among others, are already testing approaches to a more inclusive system of credentialing for all students. The Federal Government should work to link those efforts to the many others underway to build a credential system that works for all learners.    Frankly, there are few issues far more urgent than meeting our Nation's growing need for talent. Assuring that the talent of our veterans is recognized, that they obtain appropriate credentials for what they know and what they can do, and that they have opportunities to develop their talent has great import for the veterans themselves, for their families, their communities, and for our Nation.    I am very pleased that this committee and others are considering approaches to breaking down barriers and finding ways to recognize learning and skills however and wherever they are achieved. I am happy to answer your questions about the steps that the Federal Government might take in this effort or to provide further information on the work that we are doing in this area.    Thank you very much for the chance to testify.    [The prepared statement of Mr. Merisotis appears in the Appendix ]</t>
   </si>
   <si>
     <t xml:space="preserve">    Dr. Wenstrup. Thank you, Mr. Merisotis.    Ms. Roosendaal, you are now recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Roosendaal</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Roosendaal. Thank you, Mr. Chairman.    My name is Denise Roosendaal. I am the Executive Director of the Institute for Credentialing Excellence. It is a 501(c)(3) membership organization representing credentialing bodies across the country. The National Commission for Certifying Agencies, NCCA, is our accrediting arm and has accredited over 300 personnel certification programs to its standards since its inception in 1977.    I would like to thank you for the invitation to speak with you today on such an important topic. ICE has been involved in this topic for several years, supporting the establishment of the Army-Navy COOL Web sites back in 2003 as well as the two credentialing summits held by the American Legion in 2012 and 2015.    In my written testimony, I outlined anecdotal evidence of some of the success stories that we have heard about from several credentialing organizations, such as the American Culinary Federation and the Human Resources Certification Institute. These organizations connected with the military in a meaningful way to create a smooth pathway for Active Duty military servicemembers and veterans to access the private-sector certifications.    I have also outlined in my written testimony six areas that I think still need some attention. These are somewhat technical in nature, but I do believe that in order for us to move forward in connecting private-sector credentials with the important experience and knowledge that military servicemembers and veterans bring to the marketplace they should be addressed.    Very quickly, these areas are: the alignment of required knowledge, skills, and competencies between military experience and the civilian certification; some of the challenges in understanding and communicating certification and military nomenclature and classifications; the eligibility requirements, where there are no alternative pathways outlined to help identify equivalents in military experience; the lack of awareness of some of the best practices, such as governance structures, the separation of education from certification practices; the need to educate employers on the value of certifications for veterans; as well as inadequate resources for necessary activities that would help resolve some of these technical areas.    So the first one that I mentioned, the alignment of required knowledge, to many of our organizations has become clear as one of the most important to address. The alignment of acquired knowledge is sometimes--the misalignment is sometimes fueled by that misunderstanding of the military nomenclature, and it is probably the most significant obstacle.    Some private-sector credentialing organizations have found great success in their military programs by conducting an extensive and often expensive gap analysis mapping the military knowledge and skills back to the certification's own job analysis of required skills.    Other programs, like the Human Resources Certification Institute, overcame this obstacle by creating a direct connection to the military through the Army's Training with Industry, TWI, program. This is where they place a liaison in the office of HRCI, and for at least a year they understood and began to communicate the differences between the military HR requirements and the private-sector certification.    Without that direct personal connection, however, the gaps have to be analyzed on paper. And sometimes those gaps are easily identified; sometimes they are identified and filled with just specific training. Such as the Culinary Institute, they identified certain skills that were lacking in the military experience, and they were able to fill that gap with employer-based and employer-funded training.    But, more often, the gaps are not easily or accurately identified, especially around eligibility requirements. We are seeing that there is some misunderstanding of, when private-sector certification requires a certain number of years of experience--say, 5 years of relevant experience, it is not clear whether or not the military 5 years experience is equivalent.    The COOL site has helped immensely in connecting certifications with specific MOSs, but I think helping the private sector understand that connection a little bit better would be very helpful.    In ICE's research, 89 percent of certification bodies are nonprofit, 501(c)(3) or (c)(6), with a median staff size of about six individuals. So it does make it difficult to find the resources to help fill these gaps and address these issues.    I would be remiss if I concluded without expressing ICE and NCCA's commitment to identifying quality credentialing programs. The NCCA standards were originally created through a federally funded grant to create standards for quality personnel certification programs. The third-party accreditation is the best means for assessing quality programs, and our military servicemembers deserve that quality.    Thank you again for the opportunity to speak with you today. I do hope that ICE and NCCA can continue to be a resource for this committee.    Thank you.    [The prepared statement of Denise Roosendaal appears in the Appendix]</t>
   </si>
   <si>
@@ -175,9 +160,6 @@
     <t>412651</t>
   </si>
   <si>
-    <t>Ryan A. Costello</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Costello. Thank you, Mr. Chairman.    And thanks to all of you for being here and for what you do every day.    Obviously, the name of this subcommittee is the Economic Opportunity Subcommittee, and so the focus is on creating more economic opportunity for veterans and making sure that we carry through legislatively and from an implementation perspective to provide that economic opportunity.    With the hearing title being ``Do Barriers Still Remain?'', I think the answer is, yes, barriers do remain. I think the added question is, well, what can we do about those barriers? It seems to me, given the principle of federalism, that States certainly have some--well, they do have flexibility and discretion in terms of what their particular occupational licensing standards are. Fine. It also seems to me that that, in and of itself, can create a barrier.    And so what can we do, either from a preemption perspective federally or from just a best-practices perspective, to align them better so that a veteran who wants to return to my State, Pennsylvania, or maybe to Miss Rice's State, New York, doesn't decide--and Miss Rice is terrific--to go to Miss Rice's State because the occupational licensing standards there are more favorable to what that veteran has acquired from a skills and experience perspective but yet Pennsylvania--and I am using it as not an example but for purposes of hypothetical--Pennsylvania's may be more difficult? And so we want to align that so that that doesn't occur for a veteran wanting to choose where they may live.    So my question is twofold. One, what can we do on the Federal level to diminish the possibility that the 50 State occupational licensing jurisdiction doesn't create a barrier from a legislative perspective on a preemption basis? And, number two, what can we do from a best-practices perspective in order to reduce that?    If that question is too much in the land of hypothetical, I believe it was Mr. Gonzalez or Mr. Merisotis who said, you know, there are a lot of things we could talk about in terms of what Congress could do. So that would be sort of the catch-all question, if you will. And I would open it up to all four of you.    And, again, thank you for being here and testifying.</t>
   </si>
   <si>
@@ -199,12 +181,6 @@
     <t xml:space="preserve">    Mr. Swift. Sure.    One of the things--the reason that we were concerned is that a lot of the agencies that had been approved talked about training. And certification needs to be a third-party assessment that is firewalled away from training, that is a judgment that competencies have been achieved.    So we are saying--and they do have a self-attestation questionnaire that the State approving agencies use. But it looks like--is from our brief meeting--that VA probably needs to have--there needs to be more resources for the people who are trying to use that attestation questionnaire to determine if they are a legitimate certification body.    Because it appears that maybe we have allowed some through that weren't really certifications, but what we would call certificate programs that has education and training and measures learning outcomes, where certification is to be an agency that does an analysis of what the skills are to be successful on the job.    Ms Rice. So what would you suggest that the VA do?    Mr. Swift. I would think that we need to relook at the criteria they are using, the questionnaire. And I think we need more resources to do training of the people in the States that have the responsibility of determining whether this is a legitimate certification body or not. One of the ways to achieve this would be to re-authorize the old Professional Certification &amp; Licensure Advisory Committee to the Secretary of the VA.    Ms Rice. Great. Thank you.    Thank you, Mr. Chairman.    Dr. Wenstrup. Mrs. Radewagen, you are now recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>412664</t>
-  </si>
-  <si>
-    <t>Aumua Amata Coleman Radewagen</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Radewagen. Thank you, Mr. Chairman.    My question is for Mr. Gonzalez.    And, yes, I welcome you, as well. Thank you very much, all of you, panel, for appearing today.    You mentioned in your written statement that all 50 States have now passed some form of new licensing and credentialing laws. Does this include the United States territories?    And, also, could you please go into more detail as to what these new laws are and how they will increase consistency across the States and territories for servicemembers and veterans trying to obtain certain credentials?</t>
   </si>
   <si>
@@ -235,9 +211,6 @@
     <t>412629</t>
   </si>
   <si>
-    <t>Mike Bost</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Bost. Thank you, Mr. Chairman.    I think I would kind of like to continue down that because of my experience in the State. And I am trying to figure out--first off, this would be a pretty broad step towards removing States' rights and their abilities. Would you agree with that?</t>
   </si>
   <si>
@@ -280,9 +253,6 @@
     <t xml:space="preserve">    Dr. Wenstrup. Well, thank you.    A very interesting conversation, obviously, and not a simple fix. But, you know, what goes through my mind is focusing on what we may be able to do to allow States to make a decision. Because that is where it is going to have to come from. And I think we will hear from the National Governors Association and see what they have to say, but they are not going to want to give up those authorities, and probably rightfully so. But, at the same time, what can we do to provide each and every State or territory with information they need about the level of education and training that this person received that could help them make a decision in their credentialing process. And maybe that is where we need to focus.    If there are no other questions, I want to thank you all for answering our questions, and you are now excused. Thank you for joining us today.    I now want to welcome our second and final panel to the witness table.    We welcome back Ms. Teresa Gerton, Acting Assistant Secretary for the U.S. Department of Labor's Veterans' Employment and Training Service. We also have Mr. Frank DiGiovanni, who is the Director of Force Readiness and Training at the U.S. Department of Defense. And, also, we have Mr. David Quam, deputy director of policy for the National Governors Association.    I want to thank you all for being here today.    Ms. Gerton, you are now recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Gerton</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Gerton. Chairman Wenstrup, Ranking Member Takano, members of the subcommittee. Thank you for the opportunity to discuss the Department's efforts on licensing and credentialing for veterans and servicemembers at today's hearing.    Mr. Chairman, as you mentioned, last week the Department's Bureau of Labor Statistics released the August unemployment report. And the unemployment rate for veterans over the age of 18 is 4.2 percent, compared to 5.6 percent 1 year ago.</t>
   </si>
   <si>
@@ -292,16 +262,10 @@
     <t xml:space="preserve">    Dr. Wenstrup. Thank you. Mr. DiGiovanni, you are now recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>DiGiovanni</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. DiGiovanni. Chairman Wenstrup, Ranking Member Takano, distinguished members of the subcommittee, thank you for the opportunity to speak to you today. As a 26-year veteran of the United States Air Force, this is an issue near and dear to my heart.    In June of 2012 the Department stood up a licensing and credentialing task force. It was stood up for two purposes: First, to give meaning to the profession of arms. It is not only just about military courtesy, but it is also about a professional course that is both licensed and credentialed.    We also believe that licensing and credentialing is pointing to military transition, so that is the ability to translate what one learned both from training, education, and experience, and how that translates into the private sector.    The program of licensing and credentialing in the Department falls along three lines of action: The first is when you finish your initial qualification training, if you are qualified at that time, then there is an opportunity to secure a license or a credential. The second time is mid career when you have sufficient experience. And the third is as you begin to transition from military services.    In October of 2013, per the direction of Congress, we did a set of pilots, we submitted a report to you all in 2013. And in that report, we looked at areas such as truck driving, logistics, healthcare, manufacturing, IT and other areas which have direct portability from the military into the civil sector.    For example, on the one line of action that I spoke of, the Army has been very aggressive in their 91 Echo Allied Trade Specialist schoolhouse. Since 2012, over 2,000 initial graduates of that course have been awarded American Welding Society certification, and 2,350 members have been awarded certification from the National Institute of Metalworking Skills.    Also, with DoD assistance, there have been 79 bills enacted in each of the 50 States, 40 of which have made changes which encourage colleges and community colleges to give military members credit for their training, education and experience.    What we are working on now is that by fiscal year 2016, all four services will pay for credential. The latest was the Marine Corps which started their program this month, the other three, two of which actually started paying in 2015, and the Navy have been paying for credentials since 2008.    We are also working on a DoD instruction to consolidate the policies that come from this body and other places. And we also have a DoD credentialing working group where we are looking to get the four services together to look at best practices and standardization.    There is also a standup of AWS, the DoD COOL Web site, Credentialing Opportunity Online, that will now not only be able to get that from each of the four services, but there will be a central place for them now to go where you can get access to all four service sites. And the task force that I spoke of that was set up in 2012 has been extended to the end of 2017.    For the way ahead, certainly what you have done has been fantastic. It certainly helped our military members. There have been great laws that have been passed; in particular, one which authorized our military members to receive initial skills job training up to 6 months before they get out. So that becomes their place of employment for up to 6 months before they leave military service. That program, or that authority, is called SkillBridge.    We are also starting to shift the center of gravity to the States. We think that when you look at the States, the licensing issue certainly, as was discussed earlier, is a State issue. The other center of gravity is the professional associations themselves.    We also think there is an opportunity to partner with community colleges. For example, in our study, only four of 395 accredited paramedic colleges actually have a pipeline course. And what a pipeline course is is where they look at a military member's training, education and experience. You get credit for that time, you also get a competency-based exam, and then they custom design a set of coursework that only fills the gaps in what you need.    What we have seen for the paramedic, that cuts between 6 to 7 months of school time for transition. It is interesting that only 4 of the 395 institutions have that capability.    The last area that we are looking at is in combat arms, and we are looking at soft skills in helping those folks transition. I thank you for the opportunity to speak to you today and I will stand by for questions.    [The prepared statement of Mr. DiGiovanni appears in the Appendix]</t>
   </si>
   <si>
     <t xml:space="preserve">    Dr. Wenstrup. Thank you, Mr. DiGiovanni, for your input and feedback in your testimony. Mr. Quam, you are now recognized for 5 minutes.</t>
-  </si>
-  <si>
-    <t>Quam</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Quam. Chairman Wenstrup and members of the subcommittee, good afternoon. It is good to see you all, and it is a real privilege to be here on behalf of the National Governors Association. Governors have been very focused for years on veterans, the military and the National Guard. As commanders in chief of the National Guard, the last decade has seen governors very much focused on not only the protection of our troops when they go abroad, but their protection when they come home. I think this has been a really great example of what governors can do to help when these military men and women, including the Guard and our active military are coming back to the States. So it was a real privilege to be able to work with the Department of Labor to start to find those best practices.    I think you heard a lot today that every single State, and I will say some of the territories as well, have taken steps to really help the veterans returning with regard to licensing and credentialing and trying to accelerate those pathways. Well, what we found during this 18-month, really intensive process, was that implementation is key. There aren't a lot of Federal solutions that need to be imposed, licensing and credentialing is a State issue for a reason. It has to do with public safety, it has to do with geography, it has to do with the economy. All those licensing boards and credentialing criteria were put in place for a reason.    And State and local government has control over that because it is important for this to remain local. That being said, governors have found that there are barriers to trade and there are things that have to be done and the governors play a key role.    As we work through this demonstration process, there were five key recommendations that came across for what can be done to really implement these programs. There was a blueprint put in place for all States to follow. The first recommendation: Assemble a team. It is remarkable only the governor has the authority across all the agencies to bring everybody together to get the level of coordination and collaboration that you need to get this done. The effort in the State of Ohio for instance, the governor called a task force together, gave it to the governor's workforce task force, they identified 33 different State agencies that were involved in the hiring of vets, the credentialing and licensing, 33 just in the State of Ohio. Every State has that level of complexity, the governor as convener is key.    Second, you have to do your homework. What is the information? How many veterans are coming back? What were they trained in? What does your economy need? Where are the jobs? What institutions do you have that can provide that training? And can you match it all up? Without all that information, you can't make really strong decisions.    You need then data, this is where working with some of the national credentialing bodies, national licensing bodies is critical. The nurses were able to do a nationwide gap analysis comparing what the military did with what some of the States do. That type of data allows the State to start to really focus on what do we need to make sure that our veterans are ready for that civilian workforce.    It is interesting, if you think of a medic who is trained to help soldiers who are injured in combat, there is a different level of training to handle that versus handling, say, infants, who you might have to service as a nurse or a practitioner, or the elderly. And so you have to make sure that the licensing and credentialing is there for a reason to make sure that that quality control is servicing the civilian sector by taking into account the training and experience to be gained in the military.    Next one, don't reinvent the wheel. This is a big one. Best practices, the States have started to really share across State lines. You had six different States involved in this demonstration process--demonstration program, and probably the best thing that came out of it is them talking to each other. What did you do that worked? How did you work with your legislature? How did your State licensing board set up? What other bodies are you concerned with? What other are the politics that are involved there? How did you fund it? States talking to States is a key to making this work in the end.    The last one: Share information. If I have one role for the Federal Government to play, it is to help with the sharing of information from the Federal Government and from the agencies to the States. A true partnership will require the flow of information so you don't have to go looking. One of the interesting findings as I was talking to some of the people who put together this report, they had to do workarounds just to get the basic information of what vets were coming back to their States and what have they been trained in. Those are keys to bring the policy decisions together to really make this work. Happy to take questions and it has been a pleasure to be here.    [The prepared statement of Mr. Quam appears in the Appendix]</t>
@@ -814,11 +778,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -838,13 +800,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -866,11 +826,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -890,13 +848,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -918,11 +874,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -944,11 +898,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -968,13 +920,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -996,11 +946,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1020,13 +968,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1048,11 +994,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1072,13 +1016,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1100,11 +1042,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1124,13 +1064,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1152,11 +1090,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1176,13 +1112,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1204,11 +1138,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1230,11 +1162,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1256,11 +1186,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1282,11 +1210,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1306,13 +1232,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1332,13 +1256,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1358,13 +1280,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1384,13 +1304,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1410,13 +1328,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1436,13 +1352,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1462,13 +1376,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1488,13 +1400,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1514,13 +1424,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1540,13 +1448,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1566,13 +1472,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1594,11 +1498,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1618,13 +1520,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1646,11 +1546,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1670,13 +1568,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>52</v>
-      </c>
-      <c r="G35" t="s">
-        <v>53</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1696,13 +1592,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1724,11 +1618,9 @@
       <c r="F37" t="s">
         <v>11</v>
       </c>
-      <c r="G37" t="s">
-        <v>12</v>
-      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1748,13 +1640,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1774,13 +1664,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1800,13 +1688,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1828,11 +1714,9 @@
       <c r="F41" t="s">
         <v>11</v>
       </c>
-      <c r="G41" t="s">
-        <v>12</v>
-      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1852,13 +1736,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>61</v>
-      </c>
-      <c r="G42" t="s">
-        <v>62</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1878,13 +1760,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1904,13 +1784,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>61</v>
-      </c>
-      <c r="G44" t="s">
-        <v>62</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1930,13 +1808,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1956,13 +1832,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>61</v>
-      </c>
-      <c r="G46" t="s">
-        <v>62</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1982,13 +1856,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>18</v>
-      </c>
-      <c r="G47" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2008,13 +1880,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
+        <v>16</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
         <v>61</v>
-      </c>
-      <c r="G48" t="s">
-        <v>62</v>
-      </c>
-      <c r="H48" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2034,13 +1904,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>61</v>
-      </c>
-      <c r="G49" t="s">
+        <v>16</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
         <v>62</v>
-      </c>
-      <c r="H49" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2062,11 +1930,9 @@
       <c r="F50" t="s">
         <v>11</v>
       </c>
-      <c r="G50" t="s">
-        <v>12</v>
-      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2086,13 +1952,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>72</v>
-      </c>
-      <c r="G51" t="s">
-        <v>73</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2112,13 +1976,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>72</v>
-      </c>
-      <c r="G52" t="s">
-        <v>73</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2138,13 +2000,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>72</v>
-      </c>
-      <c r="G53" t="s">
-        <v>73</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2164,13 +2024,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>72</v>
-      </c>
-      <c r="G54" t="s">
-        <v>73</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2190,13 +2048,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>72</v>
-      </c>
-      <c r="G55" t="s">
-        <v>73</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2216,13 +2072,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>18</v>
-      </c>
-      <c r="G56" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2242,13 +2096,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>72</v>
-      </c>
-      <c r="G57" t="s">
-        <v>73</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2268,13 +2120,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>18</v>
-      </c>
-      <c r="G58" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2294,13 +2144,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>72</v>
-      </c>
-      <c r="G59" t="s">
+        <v>64</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
         <v>73</v>
-      </c>
-      <c r="H59" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2320,13 +2168,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>18</v>
-      </c>
-      <c r="G60" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2346,13 +2192,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>72</v>
-      </c>
-      <c r="G61" t="s">
-        <v>73</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2372,13 +2216,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>18</v>
-      </c>
-      <c r="G62" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2398,13 +2240,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>72</v>
-      </c>
-      <c r="G63" t="s">
-        <v>73</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2426,11 +2266,9 @@
       <c r="F64" t="s">
         <v>11</v>
       </c>
-      <c r="G64" t="s">
-        <v>12</v>
-      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2450,13 +2288,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>18</v>
-      </c>
-      <c r="G65" t="s">
-        <v>88</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2476,13 +2312,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>18</v>
-      </c>
-      <c r="G66" t="s">
-        <v>88</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2504,11 +2338,9 @@
       <c r="F67" t="s">
         <v>11</v>
       </c>
-      <c r="G67" t="s">
-        <v>12</v>
-      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2528,13 +2360,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>18</v>
-      </c>
-      <c r="G68" t="s">
-        <v>92</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2556,11 +2386,9 @@
       <c r="F69" t="s">
         <v>11</v>
       </c>
-      <c r="G69" t="s">
-        <v>12</v>
-      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2580,13 +2408,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>18</v>
-      </c>
-      <c r="G70" t="s">
-        <v>95</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2608,11 +2434,9 @@
       <c r="F71" t="s">
         <v>11</v>
       </c>
-      <c r="G71" t="s">
-        <v>12</v>
-      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2632,13 +2456,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>18</v>
-      </c>
-      <c r="G72" t="s">
-        <v>95</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2660,11 +2482,9 @@
       <c r="F73" t="s">
         <v>11</v>
       </c>
-      <c r="G73" t="s">
-        <v>12</v>
-      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2684,13 +2504,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>18</v>
-      </c>
-      <c r="G74" t="s">
-        <v>95</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2712,11 +2530,9 @@
       <c r="F75" t="s">
         <v>11</v>
       </c>
-      <c r="G75" t="s">
-        <v>12</v>
-      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2736,13 +2552,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>18</v>
-      </c>
-      <c r="G76" t="s">
-        <v>92</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2764,11 +2578,9 @@
       <c r="F77" t="s">
         <v>11</v>
       </c>
-      <c r="G77" t="s">
-        <v>12</v>
-      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2788,13 +2600,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>18</v>
-      </c>
-      <c r="G78" t="s">
-        <v>95</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2816,11 +2626,9 @@
       <c r="F79" t="s">
         <v>11</v>
       </c>
-      <c r="G79" t="s">
-        <v>12</v>
-      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2840,13 +2648,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>18</v>
-      </c>
-      <c r="G80" t="s">
-        <v>92</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2868,11 +2674,9 @@
       <c r="F81" t="s">
         <v>11</v>
       </c>
-      <c r="G81" t="s">
-        <v>12</v>
-      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2892,13 +2696,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>14</v>
-      </c>
-      <c r="G82" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2918,13 +2720,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>18</v>
-      </c>
-      <c r="G83" t="s">
-        <v>92</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2944,13 +2744,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>14</v>
-      </c>
-      <c r="G84" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2970,13 +2768,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>18</v>
-      </c>
-      <c r="G85" t="s">
-        <v>92</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2996,13 +2792,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>14</v>
-      </c>
-      <c r="G86" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3022,13 +2816,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>18</v>
-      </c>
-      <c r="G87" t="s">
-        <v>95</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3048,13 +2840,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>14</v>
-      </c>
-      <c r="G88" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3074,13 +2864,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>18</v>
-      </c>
-      <c r="G89" t="s">
-        <v>95</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3100,13 +2888,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>14</v>
-      </c>
-      <c r="G90" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3126,13 +2912,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>18</v>
-      </c>
-      <c r="G91" t="s">
-        <v>95</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3152,13 +2936,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>14</v>
-      </c>
-      <c r="G92" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3178,13 +2960,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>18</v>
-      </c>
-      <c r="G93" t="s">
-        <v>95</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3204,13 +2984,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>14</v>
-      </c>
-      <c r="G94" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3232,11 +3010,9 @@
       <c r="F95" t="s">
         <v>11</v>
       </c>
-      <c r="G95" t="s">
-        <v>12</v>
-      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3256,13 +3032,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>52</v>
-      </c>
-      <c r="G96" t="s">
-        <v>53</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3282,13 +3056,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>18</v>
-      </c>
-      <c r="G97" t="s">
-        <v>92</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3308,13 +3080,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>52</v>
-      </c>
-      <c r="G98" t="s">
-        <v>53</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3336,11 +3106,9 @@
       <c r="F99" t="s">
         <v>11</v>
       </c>
-      <c r="G99" t="s">
-        <v>12</v>
-      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3360,13 +3128,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>18</v>
-      </c>
-      <c r="G100" t="s">
-        <v>88</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3386,13 +3152,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>18</v>
-      </c>
-      <c r="G101" t="s">
-        <v>95</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3412,13 +3176,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>18</v>
-      </c>
-      <c r="G102" t="s">
-        <v>95</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3440,11 +3202,9 @@
       <c r="F103" t="s">
         <v>11</v>
       </c>
-      <c r="G103" t="s">
-        <v>12</v>
-      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3464,13 +3224,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>61</v>
-      </c>
-      <c r="G104" t="s">
-        <v>62</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3490,13 +3248,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>18</v>
-      </c>
-      <c r="G105" t="s">
-        <v>92</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3516,13 +3272,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>61</v>
-      </c>
-      <c r="G106" t="s">
-        <v>62</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3542,13 +3296,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>18</v>
-      </c>
-      <c r="G107" t="s">
-        <v>88</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3568,13 +3320,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>61</v>
-      </c>
-      <c r="G108" t="s">
-        <v>62</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3596,11 +3346,9 @@
       <c r="F109" t="s">
         <v>11</v>
       </c>
-      <c r="G109" t="s">
-        <v>12</v>
-      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg98691.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg98691.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="138">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>412564</t>
   </si>
   <si>
+    <t>Wenstrup</t>
+  </si>
+  <si>
+    <t>Brad</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Wenstrup. Good afternoon, and welcome to the Veterans' Affairs Subcommittee on Economic Opportunity's hearing today entitled, ``A Review of Licensing and Credentialing Standards for Servicemembers and Veterans: Do Barriers Still Remain?''    For several years, many have tried to do what on face value should be a fairly easy task, ensuring that the training and knowledge that servicemembers gain from their time in the military seamlessly translates to civilian licenses and credentials when they return home.    The translation of skills is critical. As we know, so many positions in our economy could remain unfilled due to the ever-growing skills gap of our workforce. We simply should not continue to spend millions of dollars training servicemembers to do a job in the military and then require them to turn around and retake unnecessary courses or exams for the same job in the civilian workforce.    After many years of great work done by many of our witnesses here today as well as others, I think we can safely say that their hard work is finally paying off. Last week, the Bureau of Labor Statistics announced that the unemployment rate for veterans in August was 4.2 percent, the lowest it was been in many years.    So news like this is very encouraging, but I still remain concerned about the number of younger veterans who remain either unemployed, underemployed at their current job, or have left the workforce altogether. These are the types of veterans that can benefit from redoubling our efforts to improving licensing and credentialing standards and programs for our veterans.    Before I recognize the ranking member, I want to recognize the efforts of members of our first panel. Veterans groups like the American Legion and nonprofits like the Lumina Foundation are the ones who are on the front line making huge strides in addressing this issue. It is groups like these, not the Federal Government, that are turning the tide.    I also want to thank the National Governors Association for their work and attendance here today. Congress can create all of the new Federal programs we want, but if the States don't participate and step up and change their laws and regulations to recognize the skills and knowledge that our servicemembers gain through military service, then the programs are doomed to fail.    So, with that, I look forward to hearing from our witnesses today about how Congress can help facilitate improvements in this area, and I now recognize the ranking member, Mr. Takano, for his opening comments.</t>
   </si>
   <si>
     <t>412520</t>
   </si>
   <si>
+    <t>Takano</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Takano. Thank you, Mr. Chairman. And I am very happy to join in today's examination of the challenges veterans face as they translate skills and training they have received in the military to their best advantage in the civilian workforce.    I appreciate the witnesses appearing here today from the various sectors most involved in this process. The chairman and I are both committed to eliminating unnecessary barriers to veterans' employment, and I look forward to learning how we can improve current policies to ensure that veterans' military experience and training effectively translates into meaningful civilian employment.    In examining this issue, it is crucial that civilian industries recognize and need the certifications that our veterans are pursuing. I am concerned about the lack of legitimate third-party accreditation of most licenses and credentials, and I worry that, without clear standards, veterans may be pursuing certifications that don't lead to jobs.    In particular, I am extremely troubled by the fact that many veterans are chipping away at their valuable post-9/11 GI Bill entitlement, a month at a time, in order to pay for licensing or credentialing tests, especially if those certifications don't lead to meaningful careers.    I look forward to your testimony about how we can improve our current policy of charging veterans 1 month of post-9/11 GI Bill entitlement per licensing or credentialing test. Surely, there is a better way to pay for these tests than to remove 1 full month per test from the veteran's 36-month entitlement. I am looking into a legislative solution, and I hope Chairman Wenstrup will also be interested in considering ways to fix this particular problem.    We have got a lot to get through here today, and so I just want to say welcome. Welcome back, everybody. And thank you again for being here and answering our questions. And I look forward to the testimony from all of you here today.    I yield back.</t>
   </si>
   <si>
@@ -67,6 +82,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Gonzalez</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Gonzalez. Thank you, Mr. Chairman.    Good afternoon, Chairman Wenstrup, Ranking Member Takano, and distinguished members of the subcommittee. On behalf of National Commander Dale Barnett and over 2 million members of the American Legion, we thank you and your colleagues for the work you do in support of our servicemembers, veterans, and their families. The American Legion commends you for holding this hearing.    In early 1996, the American Legion launched the first groundbreaking credentialing study to report on those skills for which the armed services provided training and for which a license or certification is required in the civilian workforce.    The education, training, and experience obtained during an individual's military service not only provides tangible benefits for the Nation's defense but can also contribute significantly to a highly skilled civilian workforce. The military invests millions of dollars training its uniform personnel, providing a broad base of knowledge and experiences that can carry over to civilian occupations.    However, transitioning from military occupations to civilian jobs can present significant challenges for servicemembers. Postsecondary education credentials are arguably even more important today than ever before. Those individuals who hold the credential generally have lower unemployment rates and greater earning power. Since 2008, jobs in the workforce that require some postsecondary education or a degree have increased by 3.6 million, while jobs for people with a high school diploma or less have declined, leading to higher unemployment rates.    However, when civilian credentialing boards, States, and employers fail to fully recognize military education, training, and experience, both the servicemember and the Nation are impaired. The veteran faces reduced chances of obtaining a job on par with his or her skills, and the civilian workforce cannot take full advantage of the extensive skills training in which our Nation has invested.    Still, the process for a veteran to get licensed is not as easy as showing up to an office with a DD 214 providing relevant military training. Conflicts between Federal and State requirements for credentials complicate the issue, which remains far from resolved around the country.    Earlier this year, the American Legion hosted its second national credentialing summit in Washington, DC, to identify best practices for implementing State laws and for lobbying new ones. Policymakers and other key stakeholders were part of the collaborative discussion. The American Legion is in the process of issuing a post-summit report in the next several months.    In the past several years, a variety of Federal and State legislation, administrative initiatives, and new Department of Defense and Department of Labor programs have been developed to reduce barriers to credentialing for servicemembers and veterans. We applaud these efforts but remain concerned about how to ensure the quality of the credentials that are paid for by the Department of Veterans Affairs.    Currently, the VA does not require periodic reapproval of certification programs. Certification tests and organizations at present are only approved once, and there are no requirements for reapproval. However, certification requirements are adapted, and changes to exams are made by the certifying agency on a regular basis. The American Legion recommends a reapproval process to ensure that the tests and organizations continue to meet the statutory requirement for payment.    Another barrier is the difference between post-9/11 and the government GI Bill payment system. The American Legion encourages this committee to eliminate the requirement that post-9/11 GI Bill recipients use an entire month's worth of entitlement for a licensing or certification test fee even when the fee amounts to far less than the full month's entitlement.    Under Title 38, U.S.C. Section 3315, license and certification tests, post-9/11 GI Bill recipients are charged 1 full month of entitlement, which may amount to over $1,000, even if the licensing or certification fee is significantly less than that. One of our recommendations is to reduce proportional to the cost of the licensing and exam fees.    While I have only highlighted two barriers and solutions within my oral remarks, my written testimony further explains barriers and Legion recommendations to Congress.    This concludes my testimony. The American Legion appreciates the opportunity to address this topic as well as identify ways to continue to break down barriers that would not only benefit those who have served but benefit our economy and workforce. I will be happy to answer any questions you might have.    And thank you, Chairman.    [The prepared statement of Steve Gonzalez appears in the Appendix]</t>
   </si>
   <si>
@@ -76,12 +94,18 @@
     <t xml:space="preserve">    Dr. Swift, you are now recognized for 5 minutes.    Mr. Swift. Thank you, Mr. Chairman.    My name is Roy Swift, and I am the Executive Director of Workcred, an affiliate of the American National Standards Institute. ANSI is the coordinator of the U.S. standardization system, and Workcred is a separate affiliate whose mission is to strengthen workforce quality by improving workforce credentials and the credentialing system.    Before launching Workcred, I spent the previous 10 years building ANSI's internationally recognized accreditation programs for educational certificates and certifications.    It is important to note that Workcred is separate from and respects the impartiality of ANSI's accreditation services. Nonetheless, both organizations share an ongoing commitment to fostering a more robust and qualified American workforce and enhancing the quality of credentials.    As a retired United States Army colonel who served a 28-year career in the U.S. Army Medical Department, I am deeply honored to testify today on the credentialing of servicemembers and veterans.    U.S. military personnel gain valuable training, skills, and, at times, do earn civilian credentials during their service, particularly in the medical arena. Credentials can contribute to career development and enhance the potential for promotion for servicemembers. After military service, credentials can help demonstrate to civilian employers that training and skills attained in the military are on par with those gained through traditional civilian pathways.    Unfortunately, many servicemembers that have earned a military occupational specialty are often not licensed or certified to perform a comparable job in the civilian workforce. This situation creates an artificial barrier to employment.    With an estimated 250,000 military personnel expected to leave the service every year, the need to translate military skills into civilian careers is as important as ever. But we face a tremendous challenge. There are more than 4,000 certifications in the U.S., and less than 10 percent of these are accredited or reviewed by a third-party accreditation body. This lack of third-party review creates a buyer-beware environment because most certifications would not meet a national or international standard.    Accreditation is an independent third-party assessment of a certification body's competence, and it plays an important role in increasing the credibility and continuous quality improvement of certifications.    ANSI's accreditation process is designed to increase the integrity and mobility of certified professionals and provide confidence to the market that they have the required competencies as advertised. Millions of professionals currently hold certifications from ANSI-accredited certification bodies.    In ANSI's view, the global nature of personnel certification demands accreditation to international standards. That is why ANSI's accreditation program is based on a national standard and international standard, ISO 17024. And that is why ANSI was the first U.S. accreditation body to deliver this accreditation in accordance with the requirements of 17011.    17011 is the basis for mutual recognition of accreditation bodies in countries around the world. This assures that credentials are seen as equivalent and are transportable across borders, broadening the global labor market and opportunities for employers and employees.    With respect to veterans' employability, ANSI has long been an active leader in working with the government on private credentialing solutions. For example, the military Credentialing Opportunities Online, COOL, program and the Department of Labor highlight ANSI accreditation.    With a broader vision, Workcred is focused on building a competency-driven credentialing economic system. We want to create alignment between industry, training, and credentialing organizations. This will advance the quality workforce credentials that have validity and are market-valued and will promote an open, transparent exchange of information.    ANSI and Workcred, in collaboration with the American Legion, were instrumental in working with the Army's TRADOC to identify high-quality, industry-recognized credentials relevant to Army soldiers as candidates for Army credentialing pilot programs.    Together with partners from George Washington University and Southern Illinois University, Workcred has just launched the Credentialing Transparency Initiative Pilot Program to create clarity in the U.S. credentialing marketplace. Funded by Lumina, the initiative will create a voluntary registry that we think has great potential for use by the Department of Defense.    All Americans have a stake in a strong and effective credentialing system. Both ANSI and Workcred are committed to supporting the employability and successful transition of military servicemembers into the workforce.    Thank you, sir.    [The prepared statement of Roy Swift appears in the Appendix]    Dr. Wenstrup. Thank you very much, Dr. Swift.    And, Mr. Merisotis, you are now recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Merisotis</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Merisotis. Thank you very much for the chance to be here today. I am Jamie Merisotis, president of Lumina Foundation.    You know, the issues being discussed here today are vital not just to the millions of individuals who are directly affected but to the growing demand for talent that will impact our entire Nation and its future. At Lumina Foundation, which is the Nation's largest private foundation focused specifically on increasing student access to and success in postsecondary education, we are working to improve the Nation's talent profile by focusing all of our efforts on one specific goal, what we call ``Goal 2025.''    That goal is this: By the year 2025, we want 60 percent of Americans to hold a high-quality postsecondary degree, certificate, or other postsecondary credential. We are convinced that this level of educational attainment is a national necessity that is the only way to ensure our country can thrive in the global economy.    Unfortunately, today, only about 45 percent of Americans now hold any kind of postsecondary credential at all. So, clearly, we are a long way from having the workforce that we need for the 21st century.    Certainly, servicemembers and military veterans can help close this gap. In fact, they represent a huge asset, a rich source of talent that this Nation sorely needs. Unfortunately, as you have already heard, their vast potential is not being fully realized, in part because of barriers imposed by issues related to education credentialing.    Lumina is involved in many different areas of work related to credentialing. When we embraced this idea of Goal 2025, we realized very quickly that things must change significantly when it comes to credentialing if we have any hope of reaching that 60-percent rate. Simply put, our Nation's postsecondary system needs to be revamped so that it can serve students better and serve far more of them than it ever has before, including the millions of our military veterans.    In short, we need a student-centered system, one that recognizes and rewards not just time spent in the classroom but actual learning, no matter where or how that learning was obtained. This is critical for servicemembers and veterans. If there is one barrier to postsecondary success facing our returning veterans, that is it: being recognized for what they learned while in service. Any workable redesign of higher education must address this barrier, which results from the complexity and confusion of our current approach to credentialing.    Today's credentialing marketplace is highly fragmented, with a vast array of credentials that don't always connect--to each other, to other educational opportunities, or to careers. We need a credentialing system that does connect, one that actually functions as a system, not as a collection of disparate parts.    A great deal of our recent work has been focused on reimagining this type of interconnected system. In fact, as Dr. Swift mentioned, we are part of a partnership of more than 80 national organizations--business, education, workforce, labor, and other organizations--that have begun a national dialogue on this topic.    A reimagined credentialing system would be competency-based, interconnected, and continually updated. It would ensure quality, and it would enable users--students, education providers, and employers--to compare the value of various credentials. Clearly, a system with these attributes would be of enormous benefit to veterans as they make their transition to civilian life.    Of course, the effort to create this type of interconnected system is one that will require concerted action by a range of stakeholders, including the Federal Government, which has supported credentialing reform through its leadership, through funding, and through participation and research.    The Departments of Labor and Education, among others, are already testing approaches to a more inclusive system of credentialing for all students. The Federal Government should work to link those efforts to the many others underway to build a credential system that works for all learners.    Frankly, there are few issues far more urgent than meeting our Nation's growing need for talent. Assuring that the talent of our veterans is recognized, that they obtain appropriate credentials for what they know and what they can do, and that they have opportunities to develop their talent has great import for the veterans themselves, for their families, their communities, and for our Nation.    I am very pleased that this committee and others are considering approaches to breaking down barriers and finding ways to recognize learning and skills however and wherever they are achieved. I am happy to answer your questions about the steps that the Federal Government might take in this effort or to provide further information on the work that we are doing in this area.    Thank you very much for the chance to testify.    [The prepared statement of Mr. Merisotis appears in the Appendix ]</t>
   </si>
   <si>
     <t xml:space="preserve">    Dr. Wenstrup. Thank you, Mr. Merisotis.    Ms. Roosendaal, you are now recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Roosendaal</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Roosendaal. Thank you, Mr. Chairman.    My name is Denise Roosendaal. I am the Executive Director of the Institute for Credentialing Excellence. It is a 501(c)(3) membership organization representing credentialing bodies across the country. The National Commission for Certifying Agencies, NCCA, is our accrediting arm and has accredited over 300 personnel certification programs to its standards since its inception in 1977.    I would like to thank you for the invitation to speak with you today on such an important topic. ICE has been involved in this topic for several years, supporting the establishment of the Army-Navy COOL Web sites back in 2003 as well as the two credentialing summits held by the American Legion in 2012 and 2015.    In my written testimony, I outlined anecdotal evidence of some of the success stories that we have heard about from several credentialing organizations, such as the American Culinary Federation and the Human Resources Certification Institute. These organizations connected with the military in a meaningful way to create a smooth pathway for Active Duty military servicemembers and veterans to access the private-sector certifications.    I have also outlined in my written testimony six areas that I think still need some attention. These are somewhat technical in nature, but I do believe that in order for us to move forward in connecting private-sector credentials with the important experience and knowledge that military servicemembers and veterans bring to the marketplace they should be addressed.    Very quickly, these areas are: the alignment of required knowledge, skills, and competencies between military experience and the civilian certification; some of the challenges in understanding and communicating certification and military nomenclature and classifications; the eligibility requirements, where there are no alternative pathways outlined to help identify equivalents in military experience; the lack of awareness of some of the best practices, such as governance structures, the separation of education from certification practices; the need to educate employers on the value of certifications for veterans; as well as inadequate resources for necessary activities that would help resolve some of these technical areas.    So the first one that I mentioned, the alignment of required knowledge, to many of our organizations has become clear as one of the most important to address. The alignment of acquired knowledge is sometimes--the misalignment is sometimes fueled by that misunderstanding of the military nomenclature, and it is probably the most significant obstacle.    Some private-sector credentialing organizations have found great success in their military programs by conducting an extensive and often expensive gap analysis mapping the military knowledge and skills back to the certification's own job analysis of required skills.    Other programs, like the Human Resources Certification Institute, overcame this obstacle by creating a direct connection to the military through the Army's Training with Industry, TWI, program. This is where they place a liaison in the office of HRCI, and for at least a year they understood and began to communicate the differences between the military HR requirements and the private-sector certification.    Without that direct personal connection, however, the gaps have to be analyzed on paper. And sometimes those gaps are easily identified; sometimes they are identified and filled with just specific training. Such as the Culinary Institute, they identified certain skills that were lacking in the military experience, and they were able to fill that gap with employer-based and employer-funded training.    But, more often, the gaps are not easily or accurately identified, especially around eligibility requirements. We are seeing that there is some misunderstanding of, when private-sector certification requires a certain number of years of experience--say, 5 years of relevant experience, it is not clear whether or not the military 5 years experience is equivalent.    The COOL site has helped immensely in connecting certifications with specific MOSs, but I think helping the private sector understand that connection a little bit better would be very helpful.    In ICE's research, 89 percent of certification bodies are nonprofit, 501(c)(3) or (c)(6), with a median staff size of about six individuals. So it does make it difficult to find the resources to help fill these gaps and address these issues.    I would be remiss if I concluded without expressing ICE and NCCA's commitment to identifying quality credentialing programs. The NCCA standards were originally created through a federally funded grant to create standards for quality personnel certification programs. The third-party accreditation is the best means for assessing quality programs, and our military servicemembers deserve that quality.    Thank you again for the opportunity to speak with you today. I do hope that ICE and NCCA can continue to be a resource for this committee.    Thank you.    [The prepared statement of Denise Roosendaal appears in the Appendix]</t>
   </si>
   <si>
@@ -160,6 +184,12 @@
     <t>412651</t>
   </si>
   <si>
+    <t>Costello</t>
+  </si>
+  <si>
+    <t>Ryan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Costello. Thank you, Mr. Chairman.    And thanks to all of you for being here and for what you do every day.    Obviously, the name of this subcommittee is the Economic Opportunity Subcommittee, and so the focus is on creating more economic opportunity for veterans and making sure that we carry through legislatively and from an implementation perspective to provide that economic opportunity.    With the hearing title being ``Do Barriers Still Remain?'', I think the answer is, yes, barriers do remain. I think the added question is, well, what can we do about those barriers? It seems to me, given the principle of federalism, that States certainly have some--well, they do have flexibility and discretion in terms of what their particular occupational licensing standards are. Fine. It also seems to me that that, in and of itself, can create a barrier.    And so what can we do, either from a preemption perspective federally or from just a best-practices perspective, to align them better so that a veteran who wants to return to my State, Pennsylvania, or maybe to Miss Rice's State, New York, doesn't decide--and Miss Rice is terrific--to go to Miss Rice's State because the occupational licensing standards there are more favorable to what that veteran has acquired from a skills and experience perspective but yet Pennsylvania--and I am using it as not an example but for purposes of hypothetical--Pennsylvania's may be more difficult? And so we want to align that so that that doesn't occur for a veteran wanting to choose where they may live.    So my question is twofold. One, what can we do on the Federal level to diminish the possibility that the 50 State occupational licensing jurisdiction doesn't create a barrier from a legislative perspective on a preemption basis? And, number two, what can we do from a best-practices perspective in order to reduce that?    If that question is too much in the land of hypothetical, I believe it was Mr. Gonzalez or Mr. Merisotis who said, you know, there are a lot of things we could talk about in terms of what Congress could do. So that would be sort of the catch-all question, if you will. And I would open it up to all four of you.    And, again, thank you for being here and testifying.</t>
   </si>
   <si>
@@ -181,6 +211,9 @@
     <t xml:space="preserve">    Mr. Swift. Sure.    One of the things--the reason that we were concerned is that a lot of the agencies that had been approved talked about training. And certification needs to be a third-party assessment that is firewalled away from training, that is a judgment that competencies have been achieved.    So we are saying--and they do have a self-attestation questionnaire that the State approving agencies use. But it looks like--is from our brief meeting--that VA probably needs to have--there needs to be more resources for the people who are trying to use that attestation questionnaire to determine if they are a legitimate certification body.    Because it appears that maybe we have allowed some through that weren't really certifications, but what we would call certificate programs that has education and training and measures learning outcomes, where certification is to be an agency that does an analysis of what the skills are to be successful on the job.    Ms Rice. So what would you suggest that the VA do?    Mr. Swift. I would think that we need to relook at the criteria they are using, the questionnaire. And I think we need more resources to do training of the people in the States that have the responsibility of determining whether this is a legitimate certification body or not. One of the ways to achieve this would be to re-authorize the old Professional Certification &amp; Licensure Advisory Committee to the Secretary of the VA.    Ms Rice. Great. Thank you.    Thank you, Mr. Chairman.    Dr. Wenstrup. Mrs. Radewagen, you are now recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Radewagen</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Radewagen. Thank you, Mr. Chairman.    My question is for Mr. Gonzalez.    And, yes, I welcome you, as well. Thank you very much, all of you, panel, for appearing today.    You mentioned in your written statement that all 50 States have now passed some form of new licensing and credentialing laws. Does this include the United States territories?    And, also, could you please go into more detail as to what these new laws are and how they will increase consistency across the States and territories for servicemembers and veterans trying to obtain certain credentials?</t>
   </si>
   <si>
@@ -211,6 +244,12 @@
     <t>412629</t>
   </si>
   <si>
+    <t>Bost</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Bost. Thank you, Mr. Chairman.    I think I would kind of like to continue down that because of my experience in the State. And I am trying to figure out--first off, this would be a pretty broad step towards removing States' rights and their abilities. Would you agree with that?</t>
   </si>
   <si>
@@ -253,6 +292,9 @@
     <t xml:space="preserve">    Dr. Wenstrup. Well, thank you.    A very interesting conversation, obviously, and not a simple fix. But, you know, what goes through my mind is focusing on what we may be able to do to allow States to make a decision. Because that is where it is going to have to come from. And I think we will hear from the National Governors Association and see what they have to say, but they are not going to want to give up those authorities, and probably rightfully so. But, at the same time, what can we do to provide each and every State or territory with information they need about the level of education and training that this person received that could help them make a decision in their credentialing process. And maybe that is where we need to focus.    If there are no other questions, I want to thank you all for answering our questions, and you are now excused. Thank you for joining us today.    I now want to welcome our second and final panel to the witness table.    We welcome back Ms. Teresa Gerton, Acting Assistant Secretary for the U.S. Department of Labor's Veterans' Employment and Training Service. We also have Mr. Frank DiGiovanni, who is the Director of Force Readiness and Training at the U.S. Department of Defense. And, also, we have Mr. David Quam, deputy director of policy for the National Governors Association.    I want to thank you all for being here today.    Ms. Gerton, you are now recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Gerton</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Gerton. Chairman Wenstrup, Ranking Member Takano, members of the subcommittee. Thank you for the opportunity to discuss the Department's efforts on licensing and credentialing for veterans and servicemembers at today's hearing.    Mr. Chairman, as you mentioned, last week the Department's Bureau of Labor Statistics released the August unemployment report. And the unemployment rate for veterans over the age of 18 is 4.2 percent, compared to 5.6 percent 1 year ago.</t>
   </si>
   <si>
@@ -262,10 +304,16 @@
     <t xml:space="preserve">    Dr. Wenstrup. Thank you. Mr. DiGiovanni, you are now recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>DiGiovanni</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. DiGiovanni. Chairman Wenstrup, Ranking Member Takano, distinguished members of the subcommittee, thank you for the opportunity to speak to you today. As a 26-year veteran of the United States Air Force, this is an issue near and dear to my heart.    In June of 2012 the Department stood up a licensing and credentialing task force. It was stood up for two purposes: First, to give meaning to the profession of arms. It is not only just about military courtesy, but it is also about a professional course that is both licensed and credentialed.    We also believe that licensing and credentialing is pointing to military transition, so that is the ability to translate what one learned both from training, education, and experience, and how that translates into the private sector.    The program of licensing and credentialing in the Department falls along three lines of action: The first is when you finish your initial qualification training, if you are qualified at that time, then there is an opportunity to secure a license or a credential. The second time is mid career when you have sufficient experience. And the third is as you begin to transition from military services.    In October of 2013, per the direction of Congress, we did a set of pilots, we submitted a report to you all in 2013. And in that report, we looked at areas such as truck driving, logistics, healthcare, manufacturing, IT and other areas which have direct portability from the military into the civil sector.    For example, on the one line of action that I spoke of, the Army has been very aggressive in their 91 Echo Allied Trade Specialist schoolhouse. Since 2012, over 2,000 initial graduates of that course have been awarded American Welding Society certification, and 2,350 members have been awarded certification from the National Institute of Metalworking Skills.    Also, with DoD assistance, there have been 79 bills enacted in each of the 50 States, 40 of which have made changes which encourage colleges and community colleges to give military members credit for their training, education and experience.    What we are working on now is that by fiscal year 2016, all four services will pay for credential. The latest was the Marine Corps which started their program this month, the other three, two of which actually started paying in 2015, and the Navy have been paying for credentials since 2008.    We are also working on a DoD instruction to consolidate the policies that come from this body and other places. And we also have a DoD credentialing working group where we are looking to get the four services together to look at best practices and standardization.    There is also a standup of AWS, the DoD COOL Web site, Credentialing Opportunity Online, that will now not only be able to get that from each of the four services, but there will be a central place for them now to go where you can get access to all four service sites. And the task force that I spoke of that was set up in 2012 has been extended to the end of 2017.    For the way ahead, certainly what you have done has been fantastic. It certainly helped our military members. There have been great laws that have been passed; in particular, one which authorized our military members to receive initial skills job training up to 6 months before they get out. So that becomes their place of employment for up to 6 months before they leave military service. That program, or that authority, is called SkillBridge.    We are also starting to shift the center of gravity to the States. We think that when you look at the States, the licensing issue certainly, as was discussed earlier, is a State issue. The other center of gravity is the professional associations themselves.    We also think there is an opportunity to partner with community colleges. For example, in our study, only four of 395 accredited paramedic colleges actually have a pipeline course. And what a pipeline course is is where they look at a military member's training, education and experience. You get credit for that time, you also get a competency-based exam, and then they custom design a set of coursework that only fills the gaps in what you need.    What we have seen for the paramedic, that cuts between 6 to 7 months of school time for transition. It is interesting that only 4 of the 395 institutions have that capability.    The last area that we are looking at is in combat arms, and we are looking at soft skills in helping those folks transition. I thank you for the opportunity to speak to you today and I will stand by for questions.    [The prepared statement of Mr. DiGiovanni appears in the Appendix]</t>
   </si>
   <si>
     <t xml:space="preserve">    Dr. Wenstrup. Thank you, Mr. DiGiovanni, for your input and feedback in your testimony. Mr. Quam, you are now recognized for 5 minutes.</t>
+  </si>
+  <si>
+    <t>Quam</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Quam. Chairman Wenstrup and members of the subcommittee, good afternoon. It is good to see you all, and it is a real privilege to be here on behalf of the National Governors Association. Governors have been very focused for years on veterans, the military and the National Guard. As commanders in chief of the National Guard, the last decade has seen governors very much focused on not only the protection of our troops when they go abroad, but their protection when they come home. I think this has been a really great example of what governors can do to help when these military men and women, including the Guard and our active military are coming back to the States. So it was a real privilege to be able to work with the Department of Labor to start to find those best practices.    I think you heard a lot today that every single State, and I will say some of the territories as well, have taken steps to really help the veterans returning with regard to licensing and credentialing and trying to accelerate those pathways. Well, what we found during this 18-month, really intensive process, was that implementation is key. There aren't a lot of Federal solutions that need to be imposed, licensing and credentialing is a State issue for a reason. It has to do with public safety, it has to do with geography, it has to do with the economy. All those licensing boards and credentialing criteria were put in place for a reason.    And State and local government has control over that because it is important for this to remain local. That being said, governors have found that there are barriers to trade and there are things that have to be done and the governors play a key role.    As we work through this demonstration process, there were five key recommendations that came across for what can be done to really implement these programs. There was a blueprint put in place for all States to follow. The first recommendation: Assemble a team. It is remarkable only the governor has the authority across all the agencies to bring everybody together to get the level of coordination and collaboration that you need to get this done. The effort in the State of Ohio for instance, the governor called a task force together, gave it to the governor's workforce task force, they identified 33 different State agencies that were involved in the hiring of vets, the credentialing and licensing, 33 just in the State of Ohio. Every State has that level of complexity, the governor as convener is key.    Second, you have to do your homework. What is the information? How many veterans are coming back? What were they trained in? What does your economy need? Where are the jobs? What institutions do you have that can provide that training? And can you match it all up? Without all that information, you can't make really strong decisions.    You need then data, this is where working with some of the national credentialing bodies, national licensing bodies is critical. The nurses were able to do a nationwide gap analysis comparing what the military did with what some of the States do. That type of data allows the State to start to really focus on what do we need to make sure that our veterans are ready for that civilian workforce.    It is interesting, if you think of a medic who is trained to help soldiers who are injured in combat, there is a different level of training to handle that versus handling, say, infants, who you might have to service as a nurse or a practitioner, or the elderly. And so you have to make sure that the licensing and credentialing is there for a reason to make sure that that quality control is servicing the civilian sector by taking into account the training and experience to be gained in the military.    Next one, don't reinvent the wheel. This is a big one. Best practices, the States have started to really share across State lines. You had six different States involved in this demonstration process--demonstration program, and probably the best thing that came out of it is them talking to each other. What did you do that worked? How did you work with your legislature? How did your State licensing board set up? What other bodies are you concerned with? What other are the politics that are involved there? How did you fund it? States talking to States is a key to making this work in the end.    The last one: Share information. If I have one role for the Federal Government to play, it is to help with the sharing of information from the Federal Government and from the agencies to the States. A true partnership will require the flow of information so you don't have to go looking. One of the interesting findings as I was talking to some of the people who put together this report, they had to do workarounds just to get the basic information of what vets were coming back to their States and what have they been trained in. Those are keys to bring the policy decisions together to really make this work. Happy to take questions and it has been a pleasure to be here.    [The prepared statement of Mr. Quam appears in the Appendix]</t>
@@ -728,7 +776,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H109"/>
+  <dimension ref="A1:I109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -736,7 +784,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -758,2597 +806,3040 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G21" t="s">
+        <v>17</v>
+      </c>
       <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" t="s">
         <v>16</v>
       </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" t="s"/>
+      <c r="G23" t="s">
+        <v>17</v>
+      </c>
       <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G24" t="s">
+        <v>17</v>
+      </c>
       <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G25" t="s">
+        <v>17</v>
+      </c>
       <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G27" t="s">
+        <v>17</v>
+      </c>
       <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G28" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G29" t="s">
+        <v>17</v>
+      </c>
       <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G30" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G31" t="s">
+        <v>17</v>
+      </c>
       <c r="H31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
       <c r="H32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G33" t="s">
+        <v>17</v>
+      </c>
       <c r="H33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
       <c r="H34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>47</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>55</v>
+      </c>
+      <c r="G35" t="s">
+        <v>56</v>
+      </c>
       <c r="H35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>57</v>
+      </c>
+      <c r="I35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G36" t="s">
+        <v>22</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>13</v>
+      </c>
       <c r="H37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G38" t="s">
+        <v>22</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G39" t="s">
+        <v>22</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G40" t="s">
+        <v>22</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G41" t="s">
+        <v>13</v>
+      </c>
       <c r="H41" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I41" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G42" t="s">
+        <v>65</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G43" t="s">
+        <v>22</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G44" t="s">
+        <v>65</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G45" t="s">
+        <v>22</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>16</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G46" t="s">
+        <v>65</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>16</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G47" t="s">
+        <v>22</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>16</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G48" t="s">
+        <v>65</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G49" t="s">
+        <v>65</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G50" t="s">
+        <v>13</v>
+      </c>
       <c r="H50" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I50" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>64</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>75</v>
+      </c>
+      <c r="G51" t="s">
+        <v>76</v>
+      </c>
       <c r="H51" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I51" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>64</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>75</v>
+      </c>
+      <c r="G52" t="s">
+        <v>76</v>
+      </c>
       <c r="H52" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I52" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>64</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>75</v>
+      </c>
+      <c r="G53" t="s">
+        <v>76</v>
+      </c>
       <c r="H53" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I53" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>64</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>75</v>
+      </c>
+      <c r="G54" t="s">
+        <v>76</v>
+      </c>
       <c r="H54" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I54" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>64</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>75</v>
+      </c>
+      <c r="G55" t="s">
+        <v>76</v>
+      </c>
       <c r="H55" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I55" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>16</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G56" t="s">
+        <v>26</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>64</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>75</v>
+      </c>
+      <c r="G57" t="s">
+        <v>76</v>
+      </c>
       <c r="H57" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I57" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>16</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G58" t="s">
+        <v>26</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>64</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>75</v>
+      </c>
+      <c r="G59" t="s">
+        <v>76</v>
+      </c>
       <c r="H59" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I59" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>16</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G60" t="s">
+        <v>26</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>64</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>75</v>
+      </c>
+      <c r="G61" t="s">
+        <v>76</v>
+      </c>
       <c r="H61" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I61" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>16</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G62" t="s">
+        <v>26</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>64</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>75</v>
+      </c>
+      <c r="G63" t="s">
+        <v>76</v>
+      </c>
       <c r="H63" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="64" spans="1:8">
+      <c r="I63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>11</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G64" t="s">
+        <v>13</v>
+      </c>
       <c r="H64" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I64" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>16</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G65" t="s">
+        <v>92</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>16</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G66" t="s">
+        <v>92</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>11</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G67" t="s">
+        <v>13</v>
+      </c>
       <c r="H67" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I67" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>16</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G68" t="s">
+        <v>96</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G69" t="s">
+        <v>13</v>
+      </c>
       <c r="H69" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I69" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>16</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G70" t="s">
+        <v>99</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>11</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G71" t="s">
+        <v>13</v>
+      </c>
       <c r="H71" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I71" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>16</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G72" t="s">
+        <v>99</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>11</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G73" t="s">
+        <v>13</v>
+      </c>
       <c r="H73" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I73" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>16</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G74" t="s">
+        <v>99</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>11</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G75" t="s">
+        <v>13</v>
+      </c>
       <c r="H75" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I75" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>16</v>
-      </c>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G76" t="s">
+        <v>96</v>
+      </c>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>11</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G77" t="s">
+        <v>13</v>
+      </c>
       <c r="H77" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I77" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>16</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G78" t="s">
+        <v>99</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>11</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G79" t="s">
+        <v>13</v>
+      </c>
       <c r="H79" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I79" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>16</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G80" t="s">
+        <v>96</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>11</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G81" t="s">
+        <v>13</v>
+      </c>
       <c r="H81" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I81" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>13</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G82" t="s">
+        <v>17</v>
+      </c>
       <c r="H82" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I82" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>16</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G83" t="s">
+        <v>96</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>13</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G84" t="s">
+        <v>17</v>
+      </c>
       <c r="H84" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I84" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>16</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G85" t="s">
+        <v>96</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>13</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G86" t="s">
+        <v>17</v>
+      </c>
       <c r="H86" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I86" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>16</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G87" t="s">
+        <v>99</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>13</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G88" t="s">
+        <v>17</v>
+      </c>
       <c r="H88" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I88" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>16</v>
-      </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G89" t="s">
+        <v>99</v>
+      </c>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>13</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G90" t="s">
+        <v>17</v>
+      </c>
       <c r="H90" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I90" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>16</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G91" t="s">
+        <v>99</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>13</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G92" t="s">
+        <v>17</v>
+      </c>
       <c r="H92" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I92" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>16</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G93" t="s">
+        <v>99</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>13</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G94" t="s">
+        <v>17</v>
+      </c>
       <c r="H94" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I94" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>11</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G95" t="s">
+        <v>13</v>
+      </c>
       <c r="H95" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I95" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>47</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>55</v>
+      </c>
+      <c r="G96" t="s">
+        <v>56</v>
+      </c>
       <c r="H96" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>57</v>
+      </c>
+      <c r="I96" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>16</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G97" t="s">
+        <v>96</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>47</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>55</v>
+      </c>
+      <c r="G98" t="s">
+        <v>56</v>
+      </c>
       <c r="H98" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>57</v>
+      </c>
+      <c r="I98" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>11</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G99" t="s">
+        <v>13</v>
+      </c>
       <c r="H99" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I99" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>16</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G100" t="s">
+        <v>92</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>16</v>
-      </c>
-      <c r="G101" t="s"/>
-      <c r="H101" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G101" t="s">
+        <v>99</v>
+      </c>
+      <c r="H101" t="s"/>
+      <c r="I101" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>16</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G102" t="s">
+        <v>99</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>11</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G103" t="s">
+        <v>13</v>
+      </c>
       <c r="H103" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I103" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>16</v>
-      </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G104" t="s">
+        <v>65</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>16</v>
-      </c>
-      <c r="G105" t="s"/>
-      <c r="H105" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G105" t="s">
+        <v>96</v>
+      </c>
+      <c r="H105" t="s"/>
+      <c r="I105" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>16</v>
-      </c>
-      <c r="G106" t="s"/>
-      <c r="H106" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G106" t="s">
+        <v>65</v>
+      </c>
+      <c r="H106" t="s"/>
+      <c r="I106" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>16</v>
-      </c>
-      <c r="G107" t="s"/>
-      <c r="H107" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G107" t="s">
+        <v>92</v>
+      </c>
+      <c r="H107" t="s"/>
+      <c r="I107" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>16</v>
-      </c>
-      <c r="G108" t="s"/>
-      <c r="H108" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G108" t="s">
+        <v>65</v>
+      </c>
+      <c r="H108" t="s"/>
+      <c r="I108" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>11</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G109" t="s">
+        <v>13</v>
+      </c>
       <c r="H109" t="s">
-        <v>121</v>
+        <v>14</v>
+      </c>
+      <c r="I109" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg98691.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg98691.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="142">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>412564</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Wenstrup</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>412520</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Takano</t>
   </si>
   <si>
@@ -182,6 +191,9 @@
   </si>
   <si>
     <t>412651</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Costello</t>
@@ -776,7 +788,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I109"/>
+  <dimension ref="A1:J109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -784,7 +796,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -809,3037 +821,3264 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G13" t="s">
         <v>14</v>
       </c>
-      <c r="I11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" t="s">
-        <v>26</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G23" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H23" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G24" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H24" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G25" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H25" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" t="s">
-        <v>22</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G27" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H27" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>21</v>
-      </c>
-      <c r="G28" t="s">
-        <v>22</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>25</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G29" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H29" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I29" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>21</v>
-      </c>
-      <c r="G30" t="s">
-        <v>22</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>25</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G31" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H31" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I31" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I32" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G33" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H33" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I33" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I34" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G35" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H35" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>21</v>
-      </c>
-      <c r="G36" t="s">
-        <v>22</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>25</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I37" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>21</v>
-      </c>
-      <c r="G38" t="s">
-        <v>22</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>25</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>21</v>
-      </c>
-      <c r="G39" t="s">
-        <v>22</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>25</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>21</v>
-      </c>
-      <c r="G40" t="s">
-        <v>22</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>25</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H41" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I41" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>21</v>
-      </c>
-      <c r="G42" t="s">
-        <v>65</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>69</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>21</v>
-      </c>
-      <c r="G43" t="s">
-        <v>22</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>25</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>21</v>
-      </c>
-      <c r="G44" t="s">
-        <v>65</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>69</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>21</v>
-      </c>
-      <c r="G45" t="s">
-        <v>22</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>25</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>21</v>
-      </c>
-      <c r="G46" t="s">
-        <v>65</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>69</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>21</v>
-      </c>
-      <c r="G47" t="s">
-        <v>22</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>25</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>21</v>
-      </c>
-      <c r="G48" t="s">
-        <v>65</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>69</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>21</v>
-      </c>
-      <c r="G49" t="s">
-        <v>65</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>69</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H50" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I50" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J50" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G51" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="H51" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I51" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>81</v>
+      </c>
+      <c r="J51" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G52" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="H52" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I52" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>81</v>
+      </c>
+      <c r="J52" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G53" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="H53" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I53" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>81</v>
+      </c>
+      <c r="J53" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G54" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="H54" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I54" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="55" spans="1:9">
+      <c r="J54" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G55" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="H55" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I55" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>81</v>
+      </c>
+      <c r="J55" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>21</v>
-      </c>
-      <c r="G56" t="s">
-        <v>26</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>29</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G57" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="H57" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I57" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>81</v>
+      </c>
+      <c r="J57" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>21</v>
-      </c>
-      <c r="G58" t="s">
-        <v>26</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>29</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G59" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="H59" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I59" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>81</v>
+      </c>
+      <c r="J59" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>21</v>
-      </c>
-      <c r="G60" t="s">
-        <v>26</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>29</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G61" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="H61" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I61" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>81</v>
+      </c>
+      <c r="J61" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>21</v>
-      </c>
-      <c r="G62" t="s">
-        <v>26</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>29</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G63" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="H63" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I63" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>81</v>
+      </c>
+      <c r="J63" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G64" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H64" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I64" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J64" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>21</v>
-      </c>
-      <c r="G65" t="s">
-        <v>92</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>96</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>21</v>
-      </c>
-      <c r="G66" t="s">
-        <v>92</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>96</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G67" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H67" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I67" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J67" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>21</v>
-      </c>
-      <c r="G68" t="s">
-        <v>96</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>100</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G69" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H69" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I69" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J69" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>21</v>
-      </c>
-      <c r="G70" t="s">
-        <v>99</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>103</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G71" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H71" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I71" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J71" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>21</v>
-      </c>
-      <c r="G72" t="s">
-        <v>99</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>103</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G73" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H73" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I73" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J73" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>21</v>
-      </c>
-      <c r="G74" t="s">
-        <v>99</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>103</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G75" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H75" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I75" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J75" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>21</v>
-      </c>
-      <c r="G76" t="s">
-        <v>96</v>
-      </c>
-      <c r="H76" t="s"/>
-      <c r="I76" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
+        <v>100</v>
+      </c>
+      <c r="I76" t="s"/>
+      <c r="J76" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G77" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H77" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I77" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J77" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>21</v>
-      </c>
-      <c r="G78" t="s">
-        <v>99</v>
-      </c>
-      <c r="H78" t="s"/>
-      <c r="I78" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
+        <v>103</v>
+      </c>
+      <c r="I78" t="s"/>
+      <c r="J78" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G79" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H79" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I79" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J79" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>21</v>
-      </c>
-      <c r="G80" t="s">
-        <v>96</v>
-      </c>
-      <c r="H80" t="s"/>
-      <c r="I80" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
+        <v>100</v>
+      </c>
+      <c r="I80" t="s"/>
+      <c r="J80" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G81" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H81" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I81" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J81" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G82" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H82" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I82" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J82" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>21</v>
-      </c>
-      <c r="G83" t="s">
-        <v>96</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>100</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G84" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H84" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I84" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J84" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>21</v>
-      </c>
-      <c r="G85" t="s">
-        <v>96</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>100</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G86" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H86" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I86" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J86" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>21</v>
-      </c>
-      <c r="G87" t="s">
-        <v>99</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>103</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G88" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H88" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I88" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J88" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>21</v>
-      </c>
-      <c r="G89" t="s">
-        <v>99</v>
-      </c>
-      <c r="H89" t="s"/>
-      <c r="I89" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
+        <v>103</v>
+      </c>
+      <c r="I89" t="s"/>
+      <c r="J89" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G90" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H90" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I90" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J90" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>21</v>
-      </c>
-      <c r="G91" t="s">
-        <v>99</v>
-      </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>103</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G92" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H92" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I92" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J92" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>21</v>
-      </c>
-      <c r="G93" t="s">
-        <v>99</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>103</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G94" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H94" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I94" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J94" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G95" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H95" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I95" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J95" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G96" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H96" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I96" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J96" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>21</v>
-      </c>
-      <c r="G97" t="s">
-        <v>96</v>
-      </c>
-      <c r="H97" t="s"/>
-      <c r="I97" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
+        <v>100</v>
+      </c>
+      <c r="I97" t="s"/>
+      <c r="J97" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G98" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H98" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I98" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J98" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G99" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H99" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I99" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J99" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>21</v>
-      </c>
-      <c r="G100" t="s">
-        <v>92</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>96</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>21</v>
-      </c>
-      <c r="G101" t="s">
-        <v>99</v>
-      </c>
-      <c r="H101" t="s"/>
-      <c r="I101" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G101" t="s"/>
+      <c r="H101" t="s">
+        <v>103</v>
+      </c>
+      <c r="I101" t="s"/>
+      <c r="J101" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>21</v>
-      </c>
-      <c r="G102" t="s">
-        <v>99</v>
-      </c>
-      <c r="H102" t="s"/>
-      <c r="I102" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
+        <v>103</v>
+      </c>
+      <c r="I102" t="s"/>
+      <c r="J102" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G103" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H103" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I103" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J103" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>21</v>
-      </c>
-      <c r="G104" t="s">
-        <v>65</v>
-      </c>
-      <c r="H104" t="s"/>
-      <c r="I104" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s">
+        <v>69</v>
+      </c>
+      <c r="I104" t="s"/>
+      <c r="J104" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>21</v>
-      </c>
-      <c r="G105" t="s">
-        <v>96</v>
-      </c>
-      <c r="H105" t="s"/>
-      <c r="I105" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
+        <v>100</v>
+      </c>
+      <c r="I105" t="s"/>
+      <c r="J105" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>21</v>
-      </c>
-      <c r="G106" t="s">
-        <v>65</v>
-      </c>
-      <c r="H106" t="s"/>
-      <c r="I106" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G106" t="s"/>
+      <c r="H106" t="s">
+        <v>69</v>
+      </c>
+      <c r="I106" t="s"/>
+      <c r="J106" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>21</v>
-      </c>
-      <c r="G107" t="s">
-        <v>92</v>
-      </c>
-      <c r="H107" t="s"/>
-      <c r="I107" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G107" t="s"/>
+      <c r="H107" t="s">
+        <v>96</v>
+      </c>
+      <c r="I107" t="s"/>
+      <c r="J107" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>21</v>
-      </c>
-      <c r="G108" t="s">
-        <v>65</v>
-      </c>
-      <c r="H108" t="s"/>
-      <c r="I108" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
+        <v>69</v>
+      </c>
+      <c r="I108" t="s"/>
+      <c r="J108" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G109" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H109" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I109" t="s">
-        <v>137</v>
+        <v>16</v>
+      </c>
+      <c r="J109" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
